--- a/cohesion_conflict_clean-ODKX/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/cohesion_conflict_clean-ODKX/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="520" windowWidth="27540" windowHeight="16060" tabRatio="689" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="2260" yWindow="520" windowWidth="27540" windowHeight="16060" tabRatio="689" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="184">
   <si>
     <t>type</t>
   </si>
@@ -538,9 +538,6 @@
     <t>linked_marriages</t>
   </si>
   <si>
-    <t>{ household_id : data('household_id'), lives_in_household : 'yes' }</t>
-  </si>
-  <si>
     <t>Family units Information:</t>
   </si>
   <si>
@@ -578,6 +575,15 @@
   </si>
   <si>
     <t>Create family lists of offspring resulting from the marriages input in previous question:</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>pass household_id and village vars to member, and defaults lives_in_household to yes.</t>
+  </si>
+  <si>
+    <t>{ household_id : data('household_id'), lives_in_household : 'yes', village : data('household_village') }</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1870,7 +1876,7 @@
     </row>
     <row r="2" spans="1:12" ht="28" customHeight="1">
       <c r="A2" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -1976,7 +1982,7 @@
     </row>
     <row r="9" spans="1:12" ht="28" customHeight="1">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>71</v>
@@ -2004,7 +2010,7 @@
     </row>
     <row r="11" spans="1:12" ht="28" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="51" t="s">
         <v>166</v>
@@ -2032,10 +2038,10 @@
     </row>
     <row r="13" spans="1:12" ht="28" customHeight="1">
       <c r="A13" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>173</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>174</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
@@ -2048,7 +2054,7 @@
     </row>
     <row r="14" spans="1:12" ht="28" customHeight="1">
       <c r="A14" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
@@ -2153,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2225,7 +2231,7 @@
       <c r="E3" s="67"/>
       <c r="F3" s="67"/>
       <c r="G3" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2240,7 +2246,7 @@
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
       <c r="G4" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2253,7 +2259,7 @@
         <v>62</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="67"/>
@@ -3233,11 +3239,11 @@
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1">
       <c r="A13" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1">
@@ -3294,9 +3300,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3308,11 +3314,13 @@
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="8" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
+    <col min="8" max="8" width="51.5" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1">
+    <row r="1" spans="1:10" s="21" customFormat="1">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -3340,10 +3348,13 @@
       <c r="I1" s="21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="24">
+      <c r="J1" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48" customHeight="1">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -3364,13 +3375,16 @@
         <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -3399,7 +3413,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -3428,21 +3442,21 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
         <v>65</v>
@@ -3457,7 +3471,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -3467,7 +3481,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3475,7 +3489,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="I9" s="1"/>
@@ -3493,10 +3507,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3531,128 +3545,128 @@
       <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B7" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B9" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B12" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B14" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B16" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>114</v>
@@ -3662,7 +3676,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>114</v>
@@ -3672,13 +3686,23 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3695,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -4046,7 +4070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -4375,7 +4399,7 @@
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
       <c r="G4" s="67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
